--- a/Running projects/Khaadi Kanteen F-6, Islamabad/PO/002- Purchase order- for split AC Haier.xlsx
+++ b/Running projects/Khaadi Kanteen F-6, Islamabad/PO/002- Purchase order- for split AC Haier.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Khaadi Kanteen F-6, Islamabad\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6550D52-3E66-49E0-ABA7-76E708071F79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E06DBCF-9123-43A6-A9A5-7A243EDA277A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$46</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$24:$24</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>S No.</t>
   </si>
@@ -155,6 +155,47 @@
   </si>
   <si>
     <t>PO # 13479</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Split Type (T-3 Inverter)
+ Heat n Cool  R-32  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1.5 TR)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Split Type (T-3 Inverter)
+ Heat n Cool  R-32  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (02 TR)</t>
+    </r>
+  </si>
+  <si>
+    <t>Delivery Address &amp; Contact Person</t>
+  </si>
+  <si>
+    <t>F-6 Kohsar Market Islamabad</t>
+  </si>
+  <si>
+    <t>Engr M. Ahsan 0312-1023173</t>
   </si>
 </sst>
 </file>
@@ -576,13 +617,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>169966</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -650,13 +691,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>150247</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>111122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -724,13 +765,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1243</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>166895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -766,14 +807,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>553693</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>71645</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>471695</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -995,6 +1036,94 @@
         <a:xfrm>
           <a:off x="66675" y="66675"/>
           <a:ext cx="1467055" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2695574</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5DF92B4-73AA-4D10-9454-114ECBBD1861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="7086600"/>
+          <a:ext cx="2952749" cy="1286054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>220282</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>29030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF03148-B5B4-4A98-AF4C-FA85EC238BF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="2933700"/>
+          <a:ext cx="8649907" cy="3258005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1318,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:H36"/>
+  <dimension ref="A10:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1474,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="F11" s="8">
-        <v>45756</v>
+        <v>45762</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1472,66 +1601,78 @@
         <v>131729</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="34" t="s">
+    <row r="27" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
+        <v>2</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="10">
+        <v>167085</v>
+      </c>
+      <c r="F27" s="19">
+        <f t="shared" ref="F27:F28" si="1">E27*C27</f>
+        <v>167085</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <v>3</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="4">
         <v>4</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="14">
-        <f>SUM(F26:F26)</f>
-        <v>131729</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" ht="17.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="15">
-        <v>437005</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="16">
-        <f>F27-F28</f>
-        <v>-305276</v>
+      <c r="D28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="10">
+        <v>196729</v>
+      </c>
+      <c r="F28" s="19">
+        <f t="shared" si="1"/>
+        <v>786916</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="14">
+        <f>SUM(F26:F28)</f>
+        <v>1085730</v>
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="16">
-        <f>F29*18%</f>
-        <v>-54949.68</v>
+    <row r="30" spans="1:8" s="3" customFormat="1" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="15">
+        <v>437005</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="3" customFormat="1" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>5</v>
       </c>
@@ -1540,39 +1681,85 @@
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="16">
-        <f>F30+F29</f>
-        <v>-360225.68</v>
+        <f>F29-F30</f>
+        <v>648725</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="31" t="s">
+    <row r="32" spans="1:8" s="3" customFormat="1" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="16">
+        <f>F31*18%</f>
+        <v>116770.5</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" s="3" customFormat="1" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="16">
+        <f>F32+F31</f>
+        <v>765495.5</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-    </row>
-    <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="44" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A36:F36"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
